--- a/SofiaSuppia - Proyecto Aurelion/Productos.xlsx
+++ b/SofiaSuppia - Proyecto Aurelion/Productos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="107">
   <si>
     <t>id_producto</t>
   </si>
@@ -34,163 +34,166 @@
     <t>Pepsi 1.5L</t>
   </si>
   <si>
+    <t>Sprite 1.5L</t>
+  </si>
+  <si>
+    <t>Fanta Naranja 1.5L</t>
+  </si>
+  <si>
+    <t>Agua Mineral 500ml</t>
+  </si>
+  <si>
+    <t>Jugo de Naranja 1L</t>
+  </si>
+  <si>
+    <t>Jugo de Manzana 1L</t>
+  </si>
+  <si>
+    <t>Energética Nitro 500ml</t>
+  </si>
+  <si>
+    <t>Yerba Mate Suave 1kg</t>
+  </si>
+  <si>
+    <t>Yerba Mate Intensa 1kg</t>
+  </si>
+  <si>
+    <t>Café Molido 250g</t>
+  </si>
+  <si>
+    <t>Té Negro 20 saquitos</t>
+  </si>
+  <si>
+    <t>Té Verde 20 saquitos</t>
+  </si>
+  <si>
+    <t>Leche Entera 1L</t>
+  </si>
+  <si>
+    <t>Leche Descremada 1L</t>
+  </si>
+  <si>
+    <t>Yogur Natural 200g</t>
+  </si>
+  <si>
+    <t>Queso Cremoso 500g</t>
+  </si>
+  <si>
+    <t>Queso Rallado 150g</t>
+  </si>
+  <si>
+    <t>Manteca 200g</t>
+  </si>
+  <si>
+    <t>Pan Lactal Blanco</t>
+  </si>
+  <si>
+    <t>Pan Lactal Integral</t>
+  </si>
+  <si>
+    <t>Medialunas de Manteca</t>
+  </si>
+  <si>
+    <t>Bizcochos Salados</t>
+  </si>
+  <si>
+    <t>Galletitas Chocolate</t>
+  </si>
+  <si>
+    <t>Galletitas Vainilla</t>
+  </si>
+  <si>
+    <t>Alfajor Triple</t>
+  </si>
+  <si>
+    <t>Alfajor Simple</t>
+  </si>
+  <si>
+    <t>Papas Fritas Clásicas 100g</t>
+  </si>
+  <si>
+    <t>Papas Fritas Onduladas 100g</t>
+  </si>
+  <si>
+    <t>Maní Salado 200g</t>
+  </si>
+  <si>
+    <t>Mix de Frutos Secos 200g</t>
+  </si>
+  <si>
+    <t>Chocolate Amargo 100g</t>
+  </si>
+  <si>
+    <t>Chocolate con Leche 100g</t>
+  </si>
+  <si>
+    <t>Turrón 50g</t>
+  </si>
+  <si>
+    <t>Barrita de Cereal 30g</t>
+  </si>
+  <si>
+    <t>Dulce de Leche 400g</t>
+  </si>
+  <si>
+    <t>Mermelada de Durazno 400g</t>
+  </si>
+  <si>
+    <t>Mermelada de Frutilla 400g</t>
+  </si>
+  <si>
+    <t>Helado Vainilla 1L</t>
+  </si>
+  <si>
+    <t>Helado Chocolate 1L</t>
+  </si>
+  <si>
+    <t>Aceite de Girasol 1L</t>
+  </si>
+  <si>
+    <t>Vinagre de Alcohol 500ml</t>
+  </si>
+  <si>
+    <t>Salsa de Tomate 500g</t>
+  </si>
+  <si>
+    <t>Arroz Largo Fino 1kg</t>
+  </si>
+  <si>
+    <t>Fideos Spaghetti 500g</t>
+  </si>
+  <si>
+    <t>Lentejas Secas 500g</t>
+  </si>
+  <si>
+    <t>Garbanzos 500g</t>
+  </si>
+  <si>
+    <t>Porotos Negros 500g</t>
+  </si>
+  <si>
+    <t>Harina de Trigo 1kg</t>
+  </si>
+  <si>
+    <t>Azúcar 1kg</t>
+  </si>
+  <si>
+    <t>Sal Fina 500g</t>
+  </si>
+  <si>
+    <t>Detergente Líquido 750ml</t>
+  </si>
+  <si>
     <t>Limpieza</t>
   </si>
   <si>
-    <t>Sprite 1.5L</t>
-  </si>
-  <si>
-    <t>Fanta Naranja 1.5L</t>
-  </si>
-  <si>
-    <t>Agua Mineral 500ml</t>
-  </si>
-  <si>
-    <t>Jugo de Naranja 1L</t>
-  </si>
-  <si>
-    <t>Jugo de Manzana 1L</t>
-  </si>
-  <si>
-    <t>Energética Nitro 500ml</t>
-  </si>
-  <si>
-    <t>Yerba Mate Suave 1kg</t>
-  </si>
-  <si>
-    <t>Yerba Mate Intensa 1kg</t>
-  </si>
-  <si>
-    <t>Café Molido 250g</t>
-  </si>
-  <si>
-    <t>Té Negro 20 saquitos</t>
-  </si>
-  <si>
-    <t>Té Verde 20 saquitos</t>
-  </si>
-  <si>
-    <t>Leche Entera 1L</t>
-  </si>
-  <si>
-    <t>Leche Descremada 1L</t>
-  </si>
-  <si>
-    <t>Yogur Natural 200g</t>
-  </si>
-  <si>
-    <t>Queso Cremoso 500g</t>
-  </si>
-  <si>
-    <t>Queso Rallado 150g</t>
-  </si>
-  <si>
-    <t>Manteca 200g</t>
-  </si>
-  <si>
-    <t>Pan Lactal Blanco</t>
-  </si>
-  <si>
-    <t>Pan Lactal Integral</t>
-  </si>
-  <si>
-    <t>Medialunas de Manteca</t>
-  </si>
-  <si>
-    <t>Bizcochos Salados</t>
-  </si>
-  <si>
-    <t>Galletitas Chocolate</t>
-  </si>
-  <si>
-    <t>Galletitas Vainilla</t>
-  </si>
-  <si>
-    <t>Alfajor Triple</t>
-  </si>
-  <si>
-    <t>Alfajor Simple</t>
-  </si>
-  <si>
-    <t>Papas Fritas Clásicas 100g</t>
-  </si>
-  <si>
-    <t>Papas Fritas Onduladas 100g</t>
-  </si>
-  <si>
-    <t>Maní Salado 200g</t>
-  </si>
-  <si>
-    <t>Mix de Frutos Secos 200g</t>
-  </si>
-  <si>
-    <t>Chocolate Amargo 100g</t>
-  </si>
-  <si>
-    <t>Chocolate con Leche 100g</t>
-  </si>
-  <si>
-    <t>Turrón 50g</t>
-  </si>
-  <si>
-    <t>Barrita de Cereal 30g</t>
-  </si>
-  <si>
-    <t>Dulce de Leche 400g</t>
-  </si>
-  <si>
-    <t>Mermelada de Durazno 400g</t>
-  </si>
-  <si>
-    <t>Mermelada de Frutilla 400g</t>
-  </si>
-  <si>
-    <t>Helado Vainilla 1L</t>
-  </si>
-  <si>
-    <t>Helado Chocolate 1L</t>
-  </si>
-  <si>
-    <t>Aceite de Girasol 1L</t>
-  </si>
-  <si>
-    <t>Vinagre de Alcohol 500ml</t>
-  </si>
-  <si>
-    <t>Salsa de Tomate 500g</t>
-  </si>
-  <si>
-    <t>Arroz Largo Fino 1kg</t>
-  </si>
-  <si>
-    <t>Fideos Spaghetti 500g</t>
-  </si>
-  <si>
-    <t>Lentejas Secas 500g</t>
-  </si>
-  <si>
-    <t>Garbanzos 500g</t>
-  </si>
-  <si>
-    <t>Porotos Negros 500g</t>
-  </si>
-  <si>
-    <t>Harina de Trigo 1kg</t>
-  </si>
-  <si>
-    <t>Azúcar 1kg</t>
-  </si>
-  <si>
-    <t>Sal Fina 500g</t>
-  </si>
-  <si>
-    <t>Detergente Líquido 750ml</t>
-  </si>
-  <si>
     <t>Lavandina 1L</t>
   </si>
   <si>
     <t>Jabón de Tocador</t>
+  </si>
+  <si>
+    <t>Higiene personal</t>
   </si>
   <si>
     <t>Shampoo 400ml</t>
@@ -584,6 +587,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="22.38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -621,7 +627,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>4973.0</v>
@@ -632,7 +638,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -646,10 +652,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <v>2033.0</v>
@@ -660,7 +666,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -674,10 +680,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>4170.0</v>
@@ -688,7 +694,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -702,10 +708,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1">
         <v>4218.0</v>
@@ -716,7 +722,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -730,10 +736,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
         <v>4883.0</v>
@@ -744,7 +750,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -758,10 +764,10 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
         <v>570.0</v>
@@ -772,7 +778,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -786,10 +792,10 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1">
         <v>1723.0</v>
@@ -800,7 +806,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -814,10 +820,10 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1">
         <v>4613.0</v>
@@ -828,7 +834,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -842,10 +848,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1">
         <v>3444.0</v>
@@ -856,7 +862,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -870,10 +876,10 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1">
         <v>1571.0</v>
@@ -884,7 +890,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -898,10 +904,10 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1">
         <v>2069.0</v>
@@ -912,7 +918,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -926,10 +932,10 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1">
         <v>1305.0</v>
@@ -940,7 +946,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -954,10 +960,10 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D27" s="1">
         <v>1001.0</v>
@@ -968,7 +974,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -982,10 +988,10 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1">
         <v>936.0</v>
@@ -996,7 +1002,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -1010,10 +1016,10 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D31" s="1">
         <v>4875.0</v>
@@ -1024,7 +1030,7 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -1038,10 +1044,10 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D33" s="1">
         <v>2234.0</v>
@@ -1052,7 +1058,7 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>5</v>
@@ -1066,10 +1072,10 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1">
         <v>503.0</v>
@@ -1080,7 +1086,7 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
@@ -1094,10 +1100,10 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D37" s="1">
         <v>2559.0</v>
@@ -1108,7 +1114,7 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>5</v>
@@ -1122,10 +1128,10 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D39" s="1">
         <v>1584.0</v>
@@ -1136,7 +1142,7 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>5</v>
@@ -1150,10 +1156,10 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D41" s="1">
         <v>1215.0</v>
@@ -1164,7 +1170,7 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>5</v>
@@ -1178,10 +1184,10 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D43" s="1">
         <v>1195.0</v>
@@ -1192,7 +1198,7 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -1206,10 +1212,10 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D45" s="1">
         <v>2979.0</v>
@@ -1220,7 +1226,7 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>5</v>
@@ -1234,10 +1240,10 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D47" s="1">
         <v>3036.0</v>
@@ -1248,7 +1254,7 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
@@ -1262,10 +1268,10 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D49" s="1">
         <v>4462.0</v>
@@ -1276,7 +1282,7 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>5</v>
@@ -1290,10 +1296,10 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D51" s="1">
         <v>727.0</v>
@@ -1304,7 +1310,7 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>5</v>
@@ -1318,10 +1324,10 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D53" s="1">
         <v>2582.0</v>
@@ -1335,7 +1341,7 @@
         <v>58</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D54" s="1">
         <v>1664.0</v>
@@ -1349,7 +1355,7 @@
         <v>59</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D55" s="1">
         <v>1592.0</v>
@@ -1360,10 +1366,10 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D56" s="1">
         <v>1407.0</v>
@@ -1374,10 +1380,10 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D57" s="1">
         <v>2532.0</v>
@@ -1388,10 +1394,10 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D58" s="1">
         <v>4520.0</v>
@@ -1402,10 +1408,10 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D59" s="1">
         <v>4752.0</v>
@@ -1416,7 +1422,7 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>5</v>
@@ -1430,10 +1436,10 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D61" s="1">
         <v>4647.0</v>
@@ -1444,7 +1450,7 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>5</v>
@@ -1458,10 +1464,10 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D63" s="1">
         <v>3848.0</v>
@@ -1472,7 +1478,7 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>5</v>
@@ -1486,10 +1492,10 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D65" s="1">
         <v>3953.0</v>
@@ -1500,7 +1506,7 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>5</v>
@@ -1514,10 +1520,10 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D67" s="1">
         <v>1533.0</v>
@@ -1528,7 +1534,7 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>5</v>
@@ -1542,10 +1548,10 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D69" s="1">
         <v>2684.0</v>
@@ -1556,7 +1562,7 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>5</v>
@@ -1570,10 +1576,10 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D71" s="1">
         <v>4061.0</v>
@@ -1584,7 +1590,7 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>5</v>
@@ -1598,10 +1604,10 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D73" s="1">
         <v>3876.0</v>
@@ -1612,7 +1618,7 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>5</v>
@@ -1626,10 +1632,10 @@
         <v>74.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D75" s="1">
         <v>2953.0</v>
@@ -1640,7 +1646,7 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>5</v>
@@ -1654,10 +1660,10 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D77" s="1">
         <v>4286.0</v>
@@ -1668,7 +1674,7 @@
         <v>77.0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>5</v>
@@ -1682,10 +1688,10 @@
         <v>78.0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D79" s="1">
         <v>4289.0</v>
@@ -1696,7 +1702,7 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>5</v>
@@ -1710,10 +1716,10 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D81" s="1">
         <v>1981.0</v>
@@ -1724,7 +1730,7 @@
         <v>81.0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>5</v>
@@ -1738,10 +1744,10 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D83" s="1">
         <v>2394.0</v>
@@ -1752,7 +1758,7 @@
         <v>83.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>5</v>
@@ -1766,10 +1772,10 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D85" s="1">
         <v>1645.0</v>
@@ -1780,7 +1786,7 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>5</v>
@@ -1794,10 +1800,10 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D87" s="1">
         <v>4090.0</v>
@@ -1808,7 +1814,7 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>5</v>
@@ -1822,10 +1828,10 @@
         <v>88.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D89" s="1">
         <v>2570.0</v>
@@ -1836,7 +1842,7 @@
         <v>89.0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>5</v>
@@ -1850,10 +1856,10 @@
         <v>90.0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D91" s="1">
         <v>2902.0</v>
@@ -1864,10 +1870,10 @@
         <v>91.0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D92" s="1">
         <v>4690.0</v>
@@ -1878,10 +1884,10 @@
         <v>92.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D93" s="1">
         <v>2512.0</v>
@@ -1892,10 +1898,10 @@
         <v>93.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D94" s="1">
         <v>2142.0</v>
@@ -1906,10 +1912,10 @@
         <v>94.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D95" s="1">
         <v>1418.0</v>
@@ -1920,10 +1926,10 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D96" s="1">
         <v>1581.0</v>
@@ -1934,10 +1940,10 @@
         <v>96.0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D97" s="1">
         <v>4920.0</v>
@@ -1948,10 +1954,10 @@
         <v>97.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D98" s="1">
         <v>872.0</v>
@@ -1962,10 +1968,10 @@
         <v>98.0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D99" s="1">
         <v>2843.0</v>
@@ -1976,10 +1982,10 @@
         <v>99.0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D100" s="1">
         <v>2430.0</v>
@@ -1990,10 +1996,10 @@
         <v>100.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D101" s="1">
         <v>4854.0</v>
